--- a/testdata/template.xlsx
+++ b/testdata/template.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">office_id</t>
   </si>
   <si>
-    <t xml:space="preserve">{{col_range(.offices)}}{{.office_id}}</t>
+    <t xml:space="preserve">{{col_range .offices}}{{.office_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">totaal aangegeven</t>
@@ -89,7 +89,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{{.omzet_hoog}</t>
+    <t xml:space="preserve">{{.omzet_hoog}}</t>
   </si>
   <si>
     <r>
@@ -113,7 +113,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{{.btw_hoog}</t>
+    <t xml:space="preserve">{{.btw_hoog}}</t>
   </si>
   <si>
     <r>
@@ -137,7 +137,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{{.omzet_laag}</t>
+    <t xml:space="preserve">{{.omzet_laag}}</t>
   </si>
   <si>
     <r>
@@ -161,7 +161,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{{.btw_laag}</t>
+    <t xml:space="preserve">{{.btw_laag}}</t>
   </si>
   <si>
     <t xml:space="preserve">Overig (1c)</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">Prive gebruik (1d)</t>
   </si>
   <si>
-    <t xml:space="preserve">{{.prive_gebruik}</t>
+    <t xml:space="preserve">{{.prive_gebruik}}</t>
   </si>
   <si>
     <t xml:space="preserve">Omzet belast met 0% (1e)</t>
   </si>
   <si>
-    <t xml:space="preserve">{{.omzet_belast met 0%}</t>
+    <t xml:space="preserve">{{.omzet_belast}}</t>
   </si>
   <si>
     <r>
@@ -385,7 +385,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -413,11 +413,6 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -516,7 +511,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,10 +533,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,15 +640,15 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.9962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.337037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.6777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.1185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,26 +716,26 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="5" t="n">
+        <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -754,26 +745,26 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5" t="n">
+        <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -784,71 +775,71 @@
       <c r="C13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="5" t="n">
+        <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -865,7 +856,7 @@
       <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -881,7 +872,7 @@
       <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -895,7 +886,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -911,7 +902,7 @@
       <c r="B29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -923,7 +914,7 @@
       <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -939,27 +930,27 @@
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -968,19 +959,19 @@
       <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -992,26 +983,26 @@
       <c r="B37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="5" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="11" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -1035,14 +1026,14 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5703703703704"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testdata/template.xlsx
+++ b/testdata/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="10559961 (BTW)" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,8 @@
     <t xml:space="preserve">office_id</t>
   </si>
   <si>
-    <t xml:space="preserve">{{col_range .offices}}{{.office_id}}</t>
+    <t xml:space="preserve">{{col_range .offices}}
+{{.office_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">totaal aangegeven</t>
@@ -520,8 +521,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -640,18 +641,18 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B39"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.6777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.1185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.137037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,14 +1027,14 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5703703703704"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4555555555556"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testdata/template.xlsx
+++ b/testdata/template.xlsx
@@ -512,7 +512,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,7 +522,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -641,15 +649,15 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9481481481482"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.2740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +667,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -667,234 +675,234 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="n">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -903,7 +911,7 @@
       <c r="B29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -912,67 +920,67 @@
       <c r="A30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -981,29 +989,29 @@
       <c r="A37" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="7" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="13" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(ROW(),2)):INDIRECT(ADDRESS(ROW(),COLUMN()-1)))</f>
         <v>0</v>
       </c>
@@ -1032,9 +1040,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4555555555556"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
